--- a/02_Data/2019_Rabi/2019_Chhattisgarh_Rabi.xlsx
+++ b/02_Data/2019_Rabi/2019_Chhattisgarh_Rabi.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouhao/Documents/Scor/GROUP_20_Repository/02_Data/2019_Rabi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C97A6C-BFB3-D34E-870D-3CEA476C8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -556,8 +562,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +626,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -666,7 +680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,9 +712,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,6 +764,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -907,14 +957,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="13" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1089,7 @@
         <v>172</v>
       </c>
       <c r="J2">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K2">
         <v>11200</v>
@@ -1059,7 +1116,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1079,7 +1136,7 @@
         <v>172</v>
       </c>
       <c r="J3">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K3">
         <v>11200</v>
@@ -1106,7 +1163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1183,7 @@
         <v>172</v>
       </c>
       <c r="J4">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K4">
         <v>11200</v>
@@ -1153,7 +1210,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1173,7 +1230,7 @@
         <v>172</v>
       </c>
       <c r="J5">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K5">
         <v>11200</v>
@@ -1200,7 +1257,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1277,7 @@
         <v>172</v>
       </c>
       <c r="J6">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K6">
         <v>11200</v>
@@ -1247,7 +1304,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1324,7 @@
         <v>172</v>
       </c>
       <c r="J7">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K7">
         <v>11200</v>
@@ -1294,7 +1351,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1371,7 @@
         <v>172</v>
       </c>
       <c r="J8">
-        <v>625.1428571428571</v>
+        <v>625.14285714285711</v>
       </c>
       <c r="K8">
         <v>11200</v>
@@ -1341,7 +1398,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1445,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1435,7 +1492,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1482,7 +1539,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1529,7 +1586,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1633,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1680,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1727,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1774,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1821,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1811,7 +1868,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1927,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +1986,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1976,7 +2033,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1996,7 +2053,7 @@
         <v>172</v>
       </c>
       <c r="J22">
-        <v>425.3333333333333</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="K22">
         <v>10000</v>
@@ -2032,7 +2089,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2052,7 +2109,7 @@
         <v>172</v>
       </c>
       <c r="J23">
-        <v>425.3333333333333</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="K23">
         <v>10000</v>
@@ -2088,7 +2145,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2108,7 +2165,7 @@
         <v>172</v>
       </c>
       <c r="J24">
-        <v>425.3333333333333</v>
+        <v>425.33333333333331</v>
       </c>
       <c r="K24">
         <v>10000</v>
@@ -2144,7 +2201,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2251,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2241,7 +2298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2288,7 +2345,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2335,7 +2392,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2382,7 +2439,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2429,7 +2486,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +2533,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2523,7 +2580,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2570,7 +2627,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2617,7 +2674,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2664,7 +2721,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2711,7 +2768,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2758,7 +2815,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2805,7 +2862,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2852,7 +2909,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2899,7 +2956,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2955,7 +3012,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -3011,7 +3068,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3067,7 +3124,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3123,7 +3180,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3179,7 +3236,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -3235,7 +3292,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3279,7 +3336,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3323,7 +3380,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3424,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -3426,7 +3483,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -3485,7 +3542,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -3544,7 +3601,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -3603,7 +3660,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -3662,7 +3719,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -3706,7 +3763,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -3765,7 +3822,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -3824,7 +3881,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -3883,7 +3940,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -3942,7 +3999,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -4001,7 +4058,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -4060,7 +4117,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4176,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>32</v>
       </c>
@@ -4178,7 +4235,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -4237,7 +4294,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -4296,7 +4353,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -4355,7 +4412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -4414,7 +4471,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>32</v>
       </c>
@@ -4461,7 +4518,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -4502,7 +4559,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -4522,7 +4579,7 @@
         <v>172</v>
       </c>
       <c r="J70">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K70">
         <v>10000</v>
@@ -4561,7 +4618,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -4581,7 +4638,7 @@
         <v>172</v>
       </c>
       <c r="J71">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K71">
         <v>10000</v>
@@ -4620,7 +4677,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -4640,7 +4697,7 @@
         <v>172</v>
       </c>
       <c r="J72">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K72">
         <v>10000</v>
@@ -4679,7 +4736,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -4699,7 +4756,7 @@
         <v>172</v>
       </c>
       <c r="J73">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K73">
         <v>10000</v>
@@ -4729,7 +4786,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -4749,7 +4806,7 @@
         <v>172</v>
       </c>
       <c r="J74">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K74">
         <v>10000</v>
@@ -4779,7 +4836,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4856,7 @@
         <v>172</v>
       </c>
       <c r="J75">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K75">
         <v>10000</v>
@@ -4838,7 +4895,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -4858,7 +4915,7 @@
         <v>172</v>
       </c>
       <c r="J76">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K76">
         <v>10000</v>
@@ -4897,7 +4954,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -4917,7 +4974,7 @@
         <v>172</v>
       </c>
       <c r="J77">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K77">
         <v>10000</v>
@@ -4956,7 +5013,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -4976,7 +5033,7 @@
         <v>172</v>
       </c>
       <c r="J78">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K78">
         <v>10000</v>
@@ -5015,7 +5072,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -5035,7 +5092,7 @@
         <v>172</v>
       </c>
       <c r="J79">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K79">
         <v>10000</v>
@@ -5074,7 +5131,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -5094,7 +5151,7 @@
         <v>172</v>
       </c>
       <c r="J80">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K80">
         <v>10000</v>
@@ -5133,7 +5190,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -5153,7 +5210,7 @@
         <v>172</v>
       </c>
       <c r="J81">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K81">
         <v>10000</v>
@@ -5192,7 +5249,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -5212,7 +5269,7 @@
         <v>172</v>
       </c>
       <c r="J82">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K82">
         <v>10000</v>
@@ -5251,7 +5308,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -5271,7 +5328,7 @@
         <v>172</v>
       </c>
       <c r="J83">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K83">
         <v>10000</v>
@@ -5310,7 +5367,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -5330,7 +5387,7 @@
         <v>172</v>
       </c>
       <c r="J84">
-        <v>361.1333333333333</v>
+        <v>361.13333333333333</v>
       </c>
       <c r="K84">
         <v>10000</v>
@@ -5366,7 +5423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -5413,7 +5470,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -5463,7 +5520,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -5513,7 +5570,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -5563,7 +5620,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -5613,7 +5670,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -5660,7 +5717,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -5707,7 +5764,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -5754,7 +5811,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -5801,7 +5858,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -5848,7 +5905,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -5895,7 +5952,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -5942,7 +5999,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -5989,7 +6046,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -6036,7 +6093,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -6083,7 +6140,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -6133,7 +6190,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -6183,7 +6240,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -6233,7 +6290,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -6283,7 +6340,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -6333,7 +6390,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -6392,7 +6449,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -6451,7 +6508,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -6510,7 +6567,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -6569,7 +6626,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -6628,7 +6685,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -6687,7 +6744,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -6746,7 +6803,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -6805,7 +6862,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -6864,7 +6921,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -6923,7 +6980,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -6982,7 +7039,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -7032,7 +7089,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -7082,7 +7139,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -7132,7 +7189,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -7182,7 +7239,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -7229,7 +7286,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -7276,7 +7333,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -7323,7 +7380,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -7370,7 +7427,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -7417,7 +7474,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -7464,7 +7521,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -7511,7 +7568,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -7531,7 +7588,7 @@
         <v>173</v>
       </c>
       <c r="J127">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K127">
         <v>20000</v>
@@ -7570,7 +7627,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -7590,7 +7647,7 @@
         <v>173</v>
       </c>
       <c r="J128">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K128">
         <v>20000</v>
@@ -7629,7 +7686,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -7649,7 +7706,7 @@
         <v>173</v>
       </c>
       <c r="J129">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K129">
         <v>20000</v>
@@ -7688,7 +7745,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -7708,7 +7765,7 @@
         <v>173</v>
       </c>
       <c r="J130">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K130">
         <v>20000</v>
@@ -7747,7 +7804,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -7767,7 +7824,7 @@
         <v>173</v>
       </c>
       <c r="J131">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K131">
         <v>20000</v>
@@ -7806,7 +7863,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -7826,7 +7883,7 @@
         <v>173</v>
       </c>
       <c r="J132">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K132">
         <v>20000</v>
@@ -7865,7 +7922,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -7885,7 +7942,7 @@
         <v>173</v>
       </c>
       <c r="J133">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K133">
         <v>20000</v>
@@ -7924,7 +7981,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -7944,7 +8001,7 @@
         <v>173</v>
       </c>
       <c r="J134">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K134">
         <v>20000</v>
@@ -7983,7 +8040,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -8003,7 +8060,7 @@
         <v>173</v>
       </c>
       <c r="J135">
-        <v>584.3333333333334</v>
+        <v>584.33333333333337</v>
       </c>
       <c r="K135">
         <v>20000</v>
@@ -8042,7 +8099,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -8062,13 +8119,13 @@
         <v>173</v>
       </c>
       <c r="J136">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K136">
         <v>20000</v>
       </c>
       <c r="L136">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M136">
         <v>0.9</v>
@@ -8089,7 +8146,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -8109,13 +8166,13 @@
         <v>173</v>
       </c>
       <c r="J137">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K137">
         <v>20000</v>
       </c>
       <c r="L137">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M137">
         <v>0.9</v>
@@ -8136,7 +8193,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -8156,13 +8213,13 @@
         <v>173</v>
       </c>
       <c r="J138">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K138">
         <v>20000</v>
       </c>
       <c r="L138">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M138">
         <v>0.9</v>
@@ -8183,7 +8240,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>32</v>
       </c>
@@ -8203,13 +8260,13 @@
         <v>173</v>
       </c>
       <c r="J139">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K139">
         <v>20000</v>
       </c>
       <c r="L139">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M139">
         <v>0.9</v>
@@ -8230,7 +8287,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8250,13 +8307,13 @@
         <v>173</v>
       </c>
       <c r="J140">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K140">
         <v>20000</v>
       </c>
       <c r="L140">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M140">
         <v>0.9</v>
@@ -8277,7 +8334,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -8297,13 +8354,13 @@
         <v>173</v>
       </c>
       <c r="J141">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K141">
         <v>20000</v>
       </c>
       <c r="L141">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M141">
         <v>0.9</v>
@@ -8324,7 +8381,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -8344,13 +8401,13 @@
         <v>173</v>
       </c>
       <c r="J142">
-        <v>372.5714285714286</v>
+        <v>372.57142857142861</v>
       </c>
       <c r="K142">
         <v>20000</v>
       </c>
       <c r="L142">
-        <v>7451428.571428571</v>
+        <v>7451428.5714285709</v>
       </c>
       <c r="M142">
         <v>0.9</v>
@@ -8371,7 +8428,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -8391,7 +8448,7 @@
         <v>173</v>
       </c>
       <c r="J143">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K143">
         <v>30000</v>
@@ -8418,7 +8475,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -8438,7 +8495,7 @@
         <v>173</v>
       </c>
       <c r="J144">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K144">
         <v>30000</v>
@@ -8465,7 +8522,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +8542,7 @@
         <v>173</v>
       </c>
       <c r="J145">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K145">
         <v>30000</v>
@@ -8512,7 +8569,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -8532,7 +8589,7 @@
         <v>173</v>
       </c>
       <c r="J146">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K146">
         <v>30000</v>
@@ -8559,7 +8616,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -8579,7 +8636,7 @@
         <v>173</v>
       </c>
       <c r="J147">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K147">
         <v>30000</v>
@@ -8606,7 +8663,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>32</v>
       </c>
@@ -8626,7 +8683,7 @@
         <v>173</v>
       </c>
       <c r="J148">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K148">
         <v>30000</v>
@@ -8653,7 +8710,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -8673,7 +8730,7 @@
         <v>173</v>
       </c>
       <c r="J149">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K149">
         <v>30000</v>
@@ -8700,7 +8757,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -8720,7 +8777,7 @@
         <v>173</v>
       </c>
       <c r="J150">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K150">
         <v>30000</v>
@@ -8747,7 +8804,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -8767,7 +8824,7 @@
         <v>173</v>
       </c>
       <c r="J151">
-        <v>9991.666666666666</v>
+        <v>9991.6666666666661</v>
       </c>
       <c r="K151">
         <v>30000</v>
@@ -8794,7 +8851,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -8841,7 +8898,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -8888,7 +8945,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>32</v>
       </c>
@@ -8935,7 +8992,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -8982,7 +9039,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -9035,7 +9092,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9088,7 +9145,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>32</v>
       </c>
@@ -9135,7 +9192,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -9182,7 +9239,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>32</v>
       </c>
@@ -9241,7 +9298,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>32</v>
       </c>
@@ -9300,7 +9357,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>32</v>
       </c>
@@ -9359,7 +9416,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -9418,7 +9475,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -9477,7 +9534,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -9536,7 +9593,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -9595,7 +9652,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -9654,7 +9711,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>32</v>
       </c>
@@ -9713,7 +9770,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>32</v>
       </c>
@@ -9772,7 +9829,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>32</v>
       </c>
@@ -9828,7 +9885,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -9884,7 +9941,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -9940,7 +9997,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -9996,7 +10053,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -10052,7 +10109,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -10072,13 +10129,13 @@
         <v>173</v>
       </c>
       <c r="J175">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K175">
         <v>30000</v>
       </c>
       <c r="L175">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M175">
         <v>0.9</v>
@@ -10111,7 +10168,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -10131,13 +10188,13 @@
         <v>173</v>
       </c>
       <c r="J176">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K176">
         <v>30000</v>
       </c>
       <c r="L176">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M176">
         <v>0.9</v>
@@ -10170,7 +10227,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -10190,13 +10247,13 @@
         <v>173</v>
       </c>
       <c r="J177">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K177">
         <v>30000</v>
       </c>
       <c r="L177">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M177">
         <v>0.9</v>
@@ -10229,7 +10286,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -10249,13 +10306,13 @@
         <v>173</v>
       </c>
       <c r="J178">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K178">
         <v>30000</v>
       </c>
       <c r="L178">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M178">
         <v>0.9</v>
@@ -10288,7 +10345,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -10308,13 +10365,13 @@
         <v>173</v>
       </c>
       <c r="J179">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K179">
         <v>30000</v>
       </c>
       <c r="L179">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M179">
         <v>0.9</v>
@@ -10347,7 +10404,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -10367,13 +10424,13 @@
         <v>173</v>
       </c>
       <c r="J180">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K180">
         <v>30000</v>
       </c>
       <c r="L180">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M180">
         <v>0.9</v>
@@ -10406,7 +10463,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -10426,13 +10483,13 @@
         <v>173</v>
       </c>
       <c r="J181">
-        <v>2434.857142857143</v>
+        <v>2434.8571428571431</v>
       </c>
       <c r="K181">
         <v>30000</v>
       </c>
       <c r="L181">
-        <v>73045714.28571428</v>
+        <v>73045714.285714284</v>
       </c>
       <c r="M181">
         <v>0.9</v>
@@ -10465,7 +10522,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -10512,7 +10569,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -10559,7 +10616,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="184" spans="1:28">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -10579,13 +10636,13 @@
         <v>173</v>
       </c>
       <c r="J184">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K184">
         <v>25000</v>
       </c>
       <c r="L184">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M184">
         <v>0.9</v>
@@ -10618,7 +10675,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="185" spans="1:28">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -10638,13 +10695,13 @@
         <v>173</v>
       </c>
       <c r="J185">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K185">
         <v>25000</v>
       </c>
       <c r="L185">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M185">
         <v>0.9</v>
@@ -10677,7 +10734,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="186" spans="1:28">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -10697,13 +10754,13 @@
         <v>173</v>
       </c>
       <c r="J186">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K186">
         <v>25000</v>
       </c>
       <c r="L186">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M186">
         <v>0.9</v>
@@ -10736,7 +10793,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="187" spans="1:28">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -10756,13 +10813,13 @@
         <v>173</v>
       </c>
       <c r="J187">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K187">
         <v>25000</v>
       </c>
       <c r="L187">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M187">
         <v>0.9</v>
@@ -10786,7 +10843,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -10806,13 +10863,13 @@
         <v>173</v>
       </c>
       <c r="J188">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K188">
         <v>25000</v>
       </c>
       <c r="L188">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M188">
         <v>0.9</v>
@@ -10836,7 +10893,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -10856,13 +10913,13 @@
         <v>173</v>
       </c>
       <c r="J189">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K189">
         <v>25000</v>
       </c>
       <c r="L189">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M189">
         <v>0.9</v>
@@ -10895,7 +10952,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -10915,13 +10972,13 @@
         <v>173</v>
       </c>
       <c r="J190">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K190">
         <v>25000</v>
       </c>
       <c r="L190">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M190">
         <v>0.9</v>
@@ -10954,7 +11011,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -10974,13 +11031,13 @@
         <v>173</v>
       </c>
       <c r="J191">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K191">
         <v>25000</v>
       </c>
       <c r="L191">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M191">
         <v>0.9</v>
@@ -11013,7 +11070,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -11033,13 +11090,13 @@
         <v>173</v>
       </c>
       <c r="J192">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K192">
         <v>25000</v>
       </c>
       <c r="L192">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M192">
         <v>0.9</v>
@@ -11072,7 +11129,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="193" spans="1:28">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -11092,13 +11149,13 @@
         <v>173</v>
       </c>
       <c r="J193">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K193">
         <v>25000</v>
       </c>
       <c r="L193">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M193">
         <v>0.9</v>
@@ -11131,7 +11188,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="194" spans="1:28">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -11151,13 +11208,13 @@
         <v>173</v>
       </c>
       <c r="J194">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K194">
         <v>25000</v>
       </c>
       <c r="L194">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M194">
         <v>0.9</v>
@@ -11190,7 +11247,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="195" spans="1:28">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -11210,13 +11267,13 @@
         <v>173</v>
       </c>
       <c r="J195">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K195">
         <v>25000</v>
       </c>
       <c r="L195">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M195">
         <v>0.9</v>
@@ -11249,7 +11306,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="196" spans="1:28">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -11269,13 +11326,13 @@
         <v>173</v>
       </c>
       <c r="J196">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K196">
         <v>25000</v>
       </c>
       <c r="L196">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M196">
         <v>0.9</v>
@@ -11308,7 +11365,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -11328,13 +11385,13 @@
         <v>173</v>
       </c>
       <c r="J197">
-        <v>2632.857142857143</v>
+        <v>2632.8571428571431</v>
       </c>
       <c r="K197">
         <v>25000</v>
       </c>
       <c r="L197">
-        <v>65821428.57142857</v>
+        <v>65821428.571428567</v>
       </c>
       <c r="M197">
         <v>0.9</v>
@@ -11355,7 +11412,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="198" spans="1:28">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -11402,7 +11459,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="199" spans="1:28">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -11449,7 +11506,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="200" spans="1:28">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -11496,7 +11553,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="201" spans="1:28">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -11525,7 +11582,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="202" spans="1:28">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -11563,7 +11620,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="203" spans="1:28">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -11610,7 +11667,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -11651,7 +11708,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="205" spans="1:28">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -11692,7 +11749,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="206" spans="1:28">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -11739,7 +11796,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="207" spans="1:28">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -11786,7 +11843,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="208" spans="1:28">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -11833,7 +11890,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="209" spans="1:28">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -11880,7 +11937,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="210" spans="1:28">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -11927,7 +11984,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -11968,7 +12025,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="212" spans="1:28">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -12009,7 +12066,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="213" spans="1:28">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -12056,7 +12113,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="214" spans="1:28">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -12103,7 +12160,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -12150,7 +12207,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="216" spans="1:28">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -12197,7 +12254,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="217" spans="1:28">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -12226,7 +12283,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -12267,7 +12324,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="219" spans="1:28">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -12314,7 +12371,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="220" spans="1:28">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -12361,7 +12418,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="221" spans="1:28">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -12408,7 +12465,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="222" spans="1:28">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -12449,7 +12506,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="223" spans="1:28">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -12496,7 +12553,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="224" spans="1:28">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -12543,7 +12600,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -12584,7 +12641,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="226" spans="1:28">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -12625,7 +12682,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="227" spans="1:28">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -12672,7 +12729,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:28">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -12719,7 +12776,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="229" spans="1:28">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -12766,7 +12823,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="230" spans="1:28">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -12813,7 +12870,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="231" spans="1:28">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -12860,7 +12917,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>32</v>
       </c>
@@ -12907,7 +12964,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="233" spans="1:28">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -12954,7 +13011,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:28">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>32</v>
       </c>
@@ -13001,7 +13058,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="235" spans="1:28">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -13048,7 +13105,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="236" spans="1:28">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -13095,7 +13152,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="1:28">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -13154,7 +13211,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="238" spans="1:28">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -13213,7 +13270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -13272,7 +13329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="240" spans="1:28">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -13331,7 +13388,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:28">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -13390,7 +13447,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="242" spans="1:28">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -13410,13 +13467,13 @@
         <v>175</v>
       </c>
       <c r="J242">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K242">
         <v>12500</v>
       </c>
       <c r="L242">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M242">
         <v>0.8</v>
@@ -13440,7 +13497,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="243" spans="1:28">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -13460,13 +13517,13 @@
         <v>175</v>
       </c>
       <c r="J243">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K243">
         <v>12500</v>
       </c>
       <c r="L243">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M243">
         <v>0.8</v>
@@ -13490,7 +13547,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:28">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -13510,13 +13567,13 @@
         <v>175</v>
       </c>
       <c r="J244">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K244">
         <v>12500</v>
       </c>
       <c r="L244">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M244">
         <v>0.8</v>
@@ -13540,7 +13597,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="245" spans="1:28">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -13560,13 +13617,13 @@
         <v>175</v>
       </c>
       <c r="J245">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K245">
         <v>12500</v>
       </c>
       <c r="L245">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M245">
         <v>0.8</v>
@@ -13590,7 +13647,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -13610,13 +13667,13 @@
         <v>175</v>
       </c>
       <c r="J246">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K246">
         <v>12500</v>
       </c>
       <c r="L246">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M246">
         <v>0.8</v>
@@ -13649,7 +13706,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="247" spans="1:28">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -13669,13 +13726,13 @@
         <v>175</v>
       </c>
       <c r="J247">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K247">
         <v>12500</v>
       </c>
       <c r="L247">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M247">
         <v>0.8</v>
@@ -13708,7 +13765,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="248" spans="1:28">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -13728,13 +13785,13 @@
         <v>175</v>
       </c>
       <c r="J248">
-        <v>273.7142857142857</v>
+        <v>273.71428571428572</v>
       </c>
       <c r="K248">
         <v>12500</v>
       </c>
       <c r="L248">
-        <v>3421428.571428571</v>
+        <v>3421428.5714285709</v>
       </c>
       <c r="M248">
         <v>0.8</v>
@@ -13764,7 +13821,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="249" spans="1:28">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -13823,7 +13880,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="250" spans="1:28">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -13882,7 +13939,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="251" spans="1:28">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -13941,7 +13998,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:28">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -14000,7 +14057,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="253" spans="1:28">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -14059,7 +14116,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="254" spans="1:28">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>32</v>
       </c>
@@ -14118,7 +14175,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="255" spans="1:28">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -14177,7 +14234,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:28">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -14236,7 +14293,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="1:28">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>32</v>
       </c>
@@ -14295,7 +14352,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="258" spans="1:28">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -14354,7 +14411,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="259" spans="1:28">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>32</v>
       </c>
@@ -14413,7 +14470,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="260" spans="1:28">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -14472,7 +14529,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="261" spans="1:28">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>32</v>
       </c>
@@ -14531,7 +14588,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="262" spans="1:28">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -14590,7 +14647,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="263" spans="1:28">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>32</v>
       </c>
@@ -14637,7 +14694,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="264" spans="1:28">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>32</v>
       </c>
@@ -14684,7 +14741,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="265" spans="1:28">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>32</v>
       </c>
@@ -14731,7 +14788,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="266" spans="1:28">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -14778,7 +14835,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="267" spans="1:28">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>32</v>
       </c>
@@ -14825,7 +14882,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="268" spans="1:28">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>32</v>
       </c>
@@ -14872,7 +14929,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="269" spans="1:28">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>32</v>
       </c>
@@ -14892,13 +14949,13 @@
         <v>175</v>
       </c>
       <c r="J269">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K269">
         <v>17000</v>
       </c>
       <c r="L269">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M269">
         <v>0.8</v>
@@ -14925,7 +14982,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="270" spans="1:28">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>32</v>
       </c>
@@ -14945,13 +15002,13 @@
         <v>175</v>
       </c>
       <c r="J270">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K270">
         <v>17000</v>
       </c>
       <c r="L270">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M270">
         <v>0.8</v>
@@ -14978,7 +15035,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="271" spans="1:28">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -14998,13 +15055,13 @@
         <v>175</v>
       </c>
       <c r="J271">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K271">
         <v>17000</v>
       </c>
       <c r="L271">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M271">
         <v>0.8</v>
@@ -15031,7 +15088,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="272" spans="1:28">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>32</v>
       </c>
@@ -15051,13 +15108,13 @@
         <v>175</v>
       </c>
       <c r="J272">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K272">
         <v>17000</v>
       </c>
       <c r="L272">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M272">
         <v>0.8</v>
@@ -15084,7 +15141,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="273" spans="1:28">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -15104,13 +15161,13 @@
         <v>175</v>
       </c>
       <c r="J273">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K273">
         <v>17000</v>
       </c>
       <c r="L273">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M273">
         <v>0.8</v>
@@ -15137,7 +15194,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="274" spans="1:28">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>32</v>
       </c>
@@ -15157,13 +15214,13 @@
         <v>175</v>
       </c>
       <c r="J274">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K274">
         <v>17000</v>
       </c>
       <c r="L274">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M274">
         <v>0.8</v>
@@ -15190,7 +15247,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="275" spans="1:28">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>32</v>
       </c>
@@ -15210,13 +15267,13 @@
         <v>175</v>
       </c>
       <c r="J275">
-        <v>190.7142857142857</v>
+        <v>190.71428571428569</v>
       </c>
       <c r="K275">
         <v>17000</v>
       </c>
       <c r="L275">
-        <v>3242142.857142857</v>
+        <v>3242142.8571428568</v>
       </c>
       <c r="M275">
         <v>0.8</v>
@@ -15243,7 +15300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="276" spans="1:28">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>32</v>
       </c>
@@ -15290,7 +15347,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="277" spans="1:28">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -15340,7 +15397,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="278" spans="1:28">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -15390,7 +15447,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="279" spans="1:28">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -15440,7 +15497,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="280" spans="1:28">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>32</v>
       </c>
@@ -15490,7 +15547,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="281" spans="1:28">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -15549,7 +15606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="282" spans="1:28">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -15608,7 +15665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="283" spans="1:28">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -15667,7 +15724,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="284" spans="1:28">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>32</v>
       </c>
@@ -15726,7 +15783,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="285" spans="1:28">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>32</v>
       </c>
@@ -15773,7 +15830,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="286" spans="1:28">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -15820,7 +15877,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="287" spans="1:28">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -15867,7 +15924,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="288" spans="1:28">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -15914,7 +15971,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="289" spans="1:28">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -15961,7 +16018,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="290" spans="1:28">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -16014,7 +16071,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="291" spans="1:28">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>32</v>
       </c>
@@ -16073,7 +16130,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="292" spans="1:28">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -16132,7 +16189,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:28">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -16191,7 +16248,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="294" spans="1:28">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>32</v>
       </c>
@@ -16250,7 +16307,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="295" spans="1:28">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -16309,7 +16366,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="296" spans="1:28">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -16368,7 +16425,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="297" spans="1:28">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -16427,7 +16484,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="298" spans="1:28">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>32</v>
       </c>
@@ -16486,7 +16543,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="299" spans="1:28">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -16545,7 +16602,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="300" spans="1:28">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -16604,7 +16661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="301" spans="1:28">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -16651,7 +16708,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="302" spans="1:28">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -16698,7 +16755,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="303" spans="1:28">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -16745,7 +16802,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="304" spans="1:28">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -16792,7 +16849,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="305" spans="1:28">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>32</v>
       </c>
@@ -16839,7 +16896,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="306" spans="1:28">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>32</v>
       </c>
@@ -16859,7 +16916,7 @@
         <v>175</v>
       </c>
       <c r="J306">
-        <v>502.3333333333333</v>
+        <v>502.33333333333331</v>
       </c>
       <c r="K306">
         <v>12905</v>
@@ -16898,7 +16955,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="307" spans="1:28">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>32</v>
       </c>
@@ -16918,7 +16975,7 @@
         <v>175</v>
       </c>
       <c r="J307">
-        <v>502.3333333333333</v>
+        <v>502.33333333333331</v>
       </c>
       <c r="K307">
         <v>12905</v>
@@ -16957,7 +17014,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="308" spans="1:28">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>32</v>
       </c>
@@ -16977,7 +17034,7 @@
         <v>175</v>
       </c>
       <c r="J308">
-        <v>502.3333333333333</v>
+        <v>502.33333333333331</v>
       </c>
       <c r="K308">
         <v>12905</v>
@@ -17016,7 +17073,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="309" spans="1:28">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>32</v>
       </c>
@@ -17063,7 +17120,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="310" spans="1:28">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>32</v>
       </c>
@@ -17110,7 +17167,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:28">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>32</v>
       </c>
@@ -17157,7 +17214,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="312" spans="1:28">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>32</v>
       </c>
@@ -17204,7 +17261,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="313" spans="1:28">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -17251,7 +17308,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:28">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>32</v>
       </c>
@@ -17298,7 +17355,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="315" spans="1:28">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>32</v>
       </c>
@@ -17345,7 +17402,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="316" spans="1:28">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>32</v>
       </c>
@@ -17392,7 +17449,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="317" spans="1:28">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>32</v>
       </c>
@@ -17439,7 +17496,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="318" spans="1:28">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -17486,7 +17543,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="319" spans="1:28">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -17533,7 +17590,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="320" spans="1:28">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -17580,7 +17637,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="321" spans="1:28">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -17627,7 +17684,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="322" spans="1:28">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -17674,7 +17731,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="323" spans="1:28">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -17721,7 +17778,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="324" spans="1:28">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -17768,7 +17825,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="325" spans="1:28">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -17815,7 +17872,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="326" spans="1:28">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>32</v>
       </c>
@@ -17862,7 +17919,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="327" spans="1:28">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>32</v>
       </c>
@@ -17909,7 +17966,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="328" spans="1:28">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>32</v>
       </c>
@@ -17956,7 +18013,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="329" spans="1:28">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>32</v>
       </c>
@@ -18003,7 +18060,7 @@
         <v>8676</v>
       </c>
     </row>
-    <row r="330" spans="1:28">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>32</v>
       </c>
@@ -18050,7 +18107,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="331" spans="1:28">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>32</v>
       </c>
@@ -18097,7 +18154,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="332" spans="1:28">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -18144,7 +18201,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="333" spans="1:28">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>32</v>
       </c>
@@ -18191,7 +18248,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="334" spans="1:28">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>32</v>
       </c>
@@ -18238,7 +18295,7 @@
         <v>10846</v>
       </c>
     </row>
-    <row r="335" spans="1:28">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>32</v>
       </c>
@@ -18285,7 +18342,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="336" spans="1:28">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>32</v>
       </c>
@@ -18341,7 +18398,7 @@
         <v>6088</v>
       </c>
     </row>
-    <row r="337" spans="1:28">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>32</v>
       </c>
@@ -18388,7 +18445,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="338" spans="1:28">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>32</v>
       </c>
@@ -18435,7 +18492,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="339" spans="1:28">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>32</v>
       </c>
@@ -18482,7 +18539,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="340" spans="1:28">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>32</v>
       </c>
@@ -18529,7 +18586,7 @@
         <v>7619</v>
       </c>
     </row>
-    <row r="341" spans="1:28">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>32</v>
       </c>
@@ -18576,7 +18633,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="342" spans="1:28">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>32</v>
       </c>
@@ -18623,7 +18680,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="343" spans="1:28">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>32</v>
       </c>
@@ -18670,7 +18727,7 @@
         <v>6899</v>
       </c>
     </row>
-    <row r="344" spans="1:28">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -18717,7 +18774,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="345" spans="1:28">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>32</v>
       </c>
@@ -18764,7 +18821,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="346" spans="1:28">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>32</v>
       </c>
@@ -18811,7 +18868,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="347" spans="1:28">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -18858,7 +18915,7 @@
         <v>7467</v>
       </c>
     </row>
-    <row r="348" spans="1:28">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>32</v>
       </c>
@@ -18905,7 +18962,7 @@
         <v>7003</v>
       </c>
     </row>
-    <row r="349" spans="1:28">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>32</v>
       </c>
@@ -18952,7 +19009,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="350" spans="1:28">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>32</v>
       </c>
@@ -18999,7 +19056,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="351" spans="1:28">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>32</v>
       </c>
@@ -19046,7 +19103,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="352" spans="1:28">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>32</v>
       </c>
@@ -19093,7 +19150,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="353" spans="1:28">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>32</v>
       </c>
@@ -19140,7 +19197,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="354" spans="1:28">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>32</v>
       </c>
@@ -19187,7 +19244,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="355" spans="1:28">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>32</v>
       </c>
@@ -19234,7 +19291,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="356" spans="1:28">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>32</v>
       </c>
@@ -19281,7 +19338,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="357" spans="1:28">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -19328,7 +19385,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="358" spans="1:28">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>32</v>
       </c>
@@ -19375,7 +19432,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="359" spans="1:28">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -19422,7 +19479,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="360" spans="1:28">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>32</v>
       </c>
@@ -19469,7 +19526,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="361" spans="1:28">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>32</v>
       </c>
@@ -19516,7 +19573,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="362" spans="1:28">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>32</v>
       </c>
@@ -19563,7 +19620,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="363" spans="1:28">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>32</v>
       </c>
@@ -19610,7 +19667,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="364" spans="1:28">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>32</v>
       </c>
@@ -19657,7 +19714,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="365" spans="1:28">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>32</v>
       </c>
@@ -19704,7 +19761,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="366" spans="1:28">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>32</v>
       </c>
@@ -19751,7 +19808,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="367" spans="1:28">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>32</v>
       </c>
@@ -19798,7 +19855,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="368" spans="1:28">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>32</v>
       </c>
@@ -19845,7 +19902,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="369" spans="1:28">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>32</v>
       </c>
@@ -19892,7 +19949,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="370" spans="1:28">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>32</v>
       </c>
@@ -19912,7 +19969,7 @@
         <v>177</v>
       </c>
       <c r="J370">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K370">
         <v>22500</v>
@@ -19945,7 +20002,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="371" spans="1:28">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>32</v>
       </c>
@@ -19965,7 +20022,7 @@
         <v>177</v>
       </c>
       <c r="J371">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K371">
         <v>22500</v>
@@ -20001,7 +20058,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="372" spans="1:28">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>32</v>
       </c>
@@ -20021,7 +20078,7 @@
         <v>177</v>
       </c>
       <c r="J372">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K372">
         <v>22500</v>
@@ -20054,7 +20111,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="373" spans="1:28">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>32</v>
       </c>
@@ -20074,7 +20131,7 @@
         <v>177</v>
       </c>
       <c r="J373">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K373">
         <v>22500</v>
@@ -20107,7 +20164,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="374" spans="1:28">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>32</v>
       </c>
@@ -20127,7 +20184,7 @@
         <v>177</v>
       </c>
       <c r="J374">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K374">
         <v>22500</v>
@@ -20160,7 +20217,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="375" spans="1:28">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>32</v>
       </c>
@@ -20180,7 +20237,7 @@
         <v>177</v>
       </c>
       <c r="J375">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K375">
         <v>22500</v>
@@ -20213,7 +20270,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="376" spans="1:28">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>32</v>
       </c>
@@ -20233,7 +20290,7 @@
         <v>177</v>
       </c>
       <c r="J376">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K376">
         <v>22500</v>
@@ -20263,7 +20320,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="377" spans="1:28">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -20283,7 +20340,7 @@
         <v>177</v>
       </c>
       <c r="J377">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K377">
         <v>22500</v>
@@ -20313,7 +20370,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="378" spans="1:28">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>32</v>
       </c>
@@ -20333,7 +20390,7 @@
         <v>177</v>
       </c>
       <c r="J378">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K378">
         <v>22500</v>
@@ -20363,7 +20420,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="379" spans="1:28">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -20383,7 +20440,7 @@
         <v>177</v>
       </c>
       <c r="J379">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K379">
         <v>22500</v>
@@ -20413,7 +20470,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="380" spans="1:28">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>32</v>
       </c>
@@ -20433,7 +20490,7 @@
         <v>177</v>
       </c>
       <c r="J380">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K380">
         <v>22500</v>
@@ -20463,7 +20520,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="381" spans="1:28">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>32</v>
       </c>
@@ -20483,7 +20540,7 @@
         <v>177</v>
       </c>
       <c r="J381">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K381">
         <v>22500</v>
@@ -20513,7 +20570,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="382" spans="1:28">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -20533,7 +20590,7 @@
         <v>177</v>
       </c>
       <c r="J382">
-        <v>351.6153846153846</v>
+        <v>351.61538461538458</v>
       </c>
       <c r="K382">
         <v>22500</v>
@@ -20563,7 +20620,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="383" spans="1:28">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>32</v>
       </c>
@@ -20604,7 +20661,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="384" spans="1:28">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>32</v>
       </c>
@@ -20624,7 +20681,7 @@
         <v>177</v>
       </c>
       <c r="J384">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K384">
         <v>22000</v>
@@ -20660,7 +20717,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="385" spans="1:28">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>32</v>
       </c>
@@ -20680,7 +20737,7 @@
         <v>177</v>
       </c>
       <c r="J385">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K385">
         <v>22000</v>
@@ -20716,7 +20773,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="386" spans="1:28">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>32</v>
       </c>
@@ -20736,7 +20793,7 @@
         <v>177</v>
       </c>
       <c r="J386">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K386">
         <v>22000</v>
@@ -20772,7 +20829,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="387" spans="1:28">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>32</v>
       </c>
@@ -20792,7 +20849,7 @@
         <v>177</v>
       </c>
       <c r="J387">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K387">
         <v>22000</v>
@@ -20828,7 +20885,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="388" spans="1:28">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>32</v>
       </c>
@@ -20848,7 +20905,7 @@
         <v>177</v>
       </c>
       <c r="J388">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K388">
         <v>22000</v>
@@ -20884,7 +20941,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="389" spans="1:28">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>32</v>
       </c>
@@ -20904,7 +20961,7 @@
         <v>177</v>
       </c>
       <c r="J389">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K389">
         <v>22000</v>
@@ -20940,7 +20997,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="390" spans="1:28">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>32</v>
       </c>
@@ -20960,7 +21017,7 @@
         <v>177</v>
       </c>
       <c r="J390">
-        <v>515.1428571428571</v>
+        <v>515.14285714285711</v>
       </c>
       <c r="K390">
         <v>22000</v>
@@ -20996,7 +21053,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="391" spans="1:28">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>32</v>
       </c>
@@ -21055,7 +21112,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="392" spans="1:28">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>32</v>
       </c>
@@ -21114,7 +21171,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="393" spans="1:28">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>32</v>
       </c>
@@ -21173,7 +21230,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="394" spans="1:28">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>32</v>
       </c>
@@ -21232,7 +21289,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="395" spans="1:28">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>32</v>
       </c>
@@ -21291,7 +21348,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="396" spans="1:28">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>32</v>
       </c>
@@ -21350,7 +21407,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="397" spans="1:28">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>32</v>
       </c>
@@ -21409,7 +21466,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="398" spans="1:28">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>32</v>
       </c>
@@ -21468,7 +21525,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="399" spans="1:28">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>32</v>
       </c>
@@ -21527,7 +21584,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="400" spans="1:28">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -21586,7 +21643,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="401" spans="1:28">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>32</v>
       </c>
@@ -21633,7 +21690,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="402" spans="1:28">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>32</v>
       </c>
@@ -21680,7 +21737,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="403" spans="1:28">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>32</v>
       </c>
@@ -21727,7 +21784,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="404" spans="1:28">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>32</v>
       </c>
@@ -21774,7 +21831,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="405" spans="1:28">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>32</v>
       </c>
@@ -21794,7 +21851,7 @@
         <v>177</v>
       </c>
       <c r="J405">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K405">
         <v>20000</v>
@@ -21833,7 +21890,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="406" spans="1:28">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>32</v>
       </c>
@@ -21853,7 +21910,7 @@
         <v>177</v>
       </c>
       <c r="J406">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K406">
         <v>20000</v>
@@ -21892,7 +21949,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="407" spans="1:28">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>32</v>
       </c>
@@ -21912,7 +21969,7 @@
         <v>177</v>
       </c>
       <c r="J407">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K407">
         <v>20000</v>
@@ -21951,7 +22008,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="408" spans="1:28">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>32</v>
       </c>
@@ -21971,7 +22028,7 @@
         <v>177</v>
       </c>
       <c r="J408">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K408">
         <v>20000</v>
@@ -22010,7 +22067,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="409" spans="1:28">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>32</v>
       </c>
@@ -22030,7 +22087,7 @@
         <v>177</v>
       </c>
       <c r="J409">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K409">
         <v>20000</v>
@@ -22069,7 +22126,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="410" spans="1:28">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>32</v>
       </c>
@@ -22089,7 +22146,7 @@
         <v>177</v>
       </c>
       <c r="J410">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K410">
         <v>20000</v>
@@ -22107,7 +22164,7 @@
         <v>966</v>
       </c>
       <c r="V410">
-        <v>978.5700000000001</v>
+        <v>978.57</v>
       </c>
       <c r="W410">
         <v>1104.29</v>
@@ -22128,7 +22185,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="411" spans="1:28">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>32</v>
       </c>
@@ -22148,7 +22205,7 @@
         <v>177</v>
       </c>
       <c r="J411">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K411">
         <v>20000</v>
@@ -22166,7 +22223,7 @@
         <v>966</v>
       </c>
       <c r="V411">
-        <v>978.5700000000001</v>
+        <v>978.57</v>
       </c>
       <c r="W411">
         <v>1104.29</v>
@@ -22187,7 +22244,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="412" spans="1:28">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>32</v>
       </c>
@@ -22207,7 +22264,7 @@
         <v>177</v>
       </c>
       <c r="J412">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K412">
         <v>20000</v>
@@ -22246,7 +22303,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="413" spans="1:28">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>32</v>
       </c>
@@ -22266,7 +22323,7 @@
         <v>177</v>
       </c>
       <c r="J413">
-        <v>270.5555555555555</v>
+        <v>270.55555555555549</v>
       </c>
       <c r="K413">
         <v>20000</v>
@@ -22305,7 +22362,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="414" spans="1:28">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>32</v>
       </c>
@@ -22325,7 +22382,7 @@
         <v>177</v>
       </c>
       <c r="J414">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K414">
         <v>20000</v>
@@ -22352,7 +22409,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="415" spans="1:28">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>32</v>
       </c>
@@ -22372,7 +22429,7 @@
         <v>177</v>
       </c>
       <c r="J415">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K415">
         <v>20000</v>
@@ -22399,7 +22456,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="416" spans="1:28">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>32</v>
       </c>
@@ -22419,7 +22476,7 @@
         <v>177</v>
       </c>
       <c r="J416">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K416">
         <v>20000</v>
@@ -22446,7 +22503,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="417" spans="1:28">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>32</v>
       </c>
@@ -22466,7 +22523,7 @@
         <v>177</v>
       </c>
       <c r="J417">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K417">
         <v>20000</v>
@@ -22493,7 +22550,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="418" spans="1:28">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>32</v>
       </c>
@@ -22513,7 +22570,7 @@
         <v>177</v>
       </c>
       <c r="J418">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K418">
         <v>20000</v>
@@ -22540,7 +22597,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="419" spans="1:28">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>32</v>
       </c>
@@ -22560,7 +22617,7 @@
         <v>177</v>
       </c>
       <c r="J419">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K419">
         <v>20000</v>
@@ -22587,7 +22644,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="420" spans="1:28">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>32</v>
       </c>
@@ -22607,7 +22664,7 @@
         <v>177</v>
       </c>
       <c r="J420">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K420">
         <v>20000</v>
@@ -22634,7 +22691,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="421" spans="1:28">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>32</v>
       </c>
@@ -22654,7 +22711,7 @@
         <v>177</v>
       </c>
       <c r="J421">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K421">
         <v>20000</v>
@@ -22681,7 +22738,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="422" spans="1:28">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>32</v>
       </c>
@@ -22701,7 +22758,7 @@
         <v>177</v>
       </c>
       <c r="J422">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K422">
         <v>20000</v>
@@ -22728,7 +22785,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="423" spans="1:28">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>32</v>
       </c>
@@ -22748,7 +22805,7 @@
         <v>177</v>
       </c>
       <c r="J423">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K423">
         <v>20000</v>
@@ -22775,7 +22832,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="424" spans="1:28">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>32</v>
       </c>
@@ -22795,7 +22852,7 @@
         <v>177</v>
       </c>
       <c r="J424">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K424">
         <v>20000</v>
@@ -22822,7 +22879,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="425" spans="1:28">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>32</v>
       </c>
@@ -22842,7 +22899,7 @@
         <v>177</v>
       </c>
       <c r="J425">
-        <v>313.8333333333333</v>
+        <v>313.83333333333331</v>
       </c>
       <c r="K425">
         <v>20000</v>
@@ -22869,7 +22926,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="426" spans="1:28">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>32</v>
       </c>
@@ -22889,13 +22946,13 @@
         <v>177</v>
       </c>
       <c r="J426">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K426">
         <v>26480</v>
       </c>
       <c r="L426">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M426">
         <v>0.8</v>
@@ -22916,7 +22973,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="427" spans="1:28">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>32</v>
       </c>
@@ -22936,13 +22993,13 @@
         <v>177</v>
       </c>
       <c r="J427">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K427">
         <v>26480</v>
       </c>
       <c r="L427">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M427">
         <v>0.8</v>
@@ -22963,7 +23020,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="428" spans="1:28">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>32</v>
       </c>
@@ -22983,13 +23040,13 @@
         <v>177</v>
       </c>
       <c r="J428">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K428">
         <v>26480</v>
       </c>
       <c r="L428">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M428">
         <v>0.8</v>
@@ -23010,7 +23067,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="429" spans="1:28">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>32</v>
       </c>
@@ -23030,13 +23087,13 @@
         <v>177</v>
       </c>
       <c r="J429">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K429">
         <v>26480</v>
       </c>
       <c r="L429">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M429">
         <v>0.8</v>
@@ -23057,7 +23114,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="430" spans="1:28">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>32</v>
       </c>
@@ -23077,13 +23134,13 @@
         <v>177</v>
       </c>
       <c r="J430">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K430">
         <v>26480</v>
       </c>
       <c r="L430">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M430">
         <v>0.8</v>
@@ -23104,7 +23161,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="431" spans="1:28">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>32</v>
       </c>
@@ -23124,13 +23181,13 @@
         <v>177</v>
       </c>
       <c r="J431">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K431">
         <v>26480</v>
       </c>
       <c r="L431">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M431">
         <v>0.8</v>
@@ -23151,7 +23208,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="432" spans="1:28">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>32</v>
       </c>
@@ -23171,13 +23228,13 @@
         <v>177</v>
       </c>
       <c r="J432">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K432">
         <v>26480</v>
       </c>
       <c r="L432">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M432">
         <v>0.8</v>
@@ -23198,7 +23255,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="433" spans="1:28">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>32</v>
       </c>
@@ -23218,13 +23275,13 @@
         <v>177</v>
       </c>
       <c r="J433">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K433">
         <v>26480</v>
       </c>
       <c r="L433">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M433">
         <v>0.8</v>
@@ -23245,7 +23302,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="434" spans="1:28">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>32</v>
       </c>
@@ -23265,13 +23322,13 @@
         <v>177</v>
       </c>
       <c r="J434">
-        <v>1302.555555555556</v>
+        <v>1302.5555555555561</v>
       </c>
       <c r="K434">
         <v>26480</v>
       </c>
       <c r="L434">
-        <v>34491671.11111111</v>
+        <v>34491671.111111112</v>
       </c>
       <c r="M434">
         <v>0.8</v>
@@ -23292,7 +23349,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="435" spans="1:28">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>32</v>
       </c>
@@ -23333,7 +23390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="436" spans="1:28">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>32</v>
       </c>
@@ -23374,7 +23431,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="437" spans="1:28">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>32</v>
       </c>
@@ -23421,7 +23478,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="438" spans="1:28">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>32</v>
       </c>
@@ -23468,7 +23525,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="439" spans="1:28">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>32</v>
       </c>
@@ -23515,7 +23572,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="440" spans="1:28">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>32</v>
       </c>
@@ -23562,7 +23619,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="441" spans="1:28">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>32</v>
       </c>
@@ -23609,7 +23666,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="442" spans="1:28">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>32</v>
       </c>
@@ -23665,7 +23722,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="443" spans="1:28">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>32</v>
       </c>
@@ -23721,7 +23778,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="444" spans="1:28">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>32</v>
       </c>
@@ -23777,7 +23834,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="445" spans="1:28">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>32</v>
       </c>
@@ -23833,7 +23890,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="446" spans="1:28">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>32</v>
       </c>
@@ -23889,7 +23946,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="447" spans="1:28">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>32</v>
       </c>
@@ -23948,7 +24005,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="448" spans="1:28">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>32</v>
       </c>
@@ -24007,7 +24064,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="449" spans="1:28">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>32</v>
       </c>
@@ -24066,7 +24123,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="450" spans="1:28">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>32</v>
       </c>
@@ -24125,7 +24182,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="451" spans="1:28">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>32</v>
       </c>
@@ -24172,7 +24229,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="452" spans="1:28">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>32</v>
       </c>
@@ -24213,7 +24270,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="453" spans="1:28">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>32</v>
       </c>
@@ -24269,7 +24326,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="454" spans="1:28">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>32</v>
       </c>
@@ -24325,7 +24382,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="455" spans="1:28">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>32</v>
       </c>
@@ -24381,7 +24438,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="456" spans="1:28">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>32</v>
       </c>
@@ -24437,7 +24494,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="457" spans="1:28">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>32</v>
       </c>
@@ -24493,7 +24550,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="458" spans="1:28">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>32</v>
       </c>
@@ -24549,7 +24606,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="459" spans="1:28">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>32</v>
       </c>
@@ -24605,7 +24662,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="460" spans="1:28">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>32</v>
       </c>
@@ -24661,7 +24718,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="461" spans="1:28">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>32</v>
       </c>
@@ -24717,7 +24774,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="462" spans="1:28">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>32</v>
       </c>
@@ -24773,7 +24830,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="463" spans="1:28">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>32</v>
       </c>
@@ -24793,7 +24850,7 @@
         <v>177</v>
       </c>
       <c r="J463">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K463">
         <v>13000</v>
@@ -24832,7 +24889,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="464" spans="1:28">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>32</v>
       </c>
@@ -24852,7 +24909,7 @@
         <v>177</v>
       </c>
       <c r="J464">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K464">
         <v>13000</v>
@@ -24891,7 +24948,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="465" spans="1:28">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>32</v>
       </c>
@@ -24911,7 +24968,7 @@
         <v>177</v>
       </c>
       <c r="J465">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K465">
         <v>13000</v>
@@ -24950,7 +25007,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="466" spans="1:28">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>32</v>
       </c>
@@ -24970,7 +25027,7 @@
         <v>177</v>
       </c>
       <c r="J466">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K466">
         <v>13000</v>
@@ -25009,7 +25066,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="467" spans="1:28">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>32</v>
       </c>
@@ -25029,7 +25086,7 @@
         <v>177</v>
       </c>
       <c r="J467">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K467">
         <v>13000</v>
@@ -25068,7 +25125,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="468" spans="1:28">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>32</v>
       </c>
@@ -25088,7 +25145,7 @@
         <v>177</v>
       </c>
       <c r="J468">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K468">
         <v>13000</v>
@@ -25127,7 +25184,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="469" spans="1:28">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>32</v>
       </c>
@@ -25147,7 +25204,7 @@
         <v>177</v>
       </c>
       <c r="J469">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K469">
         <v>13000</v>
@@ -25162,7 +25219,7 @@
         <v>1161</v>
       </c>
       <c r="U469">
-        <v>1288.6</v>
+        <v>1288.5999999999999</v>
       </c>
       <c r="V469">
         <v>1309</v>
@@ -25186,7 +25243,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="470" spans="1:28">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>32</v>
       </c>
@@ -25206,7 +25263,7 @@
         <v>177</v>
       </c>
       <c r="J470">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K470">
         <v>13000</v>
@@ -25218,10 +25275,10 @@
         <v>0.8</v>
       </c>
       <c r="T470">
-        <v>1282.36</v>
+        <v>1282.3599999999999</v>
       </c>
       <c r="U470">
-        <v>1288.6</v>
+        <v>1288.5999999999999</v>
       </c>
       <c r="V470">
         <v>1387.09</v>
@@ -25245,7 +25302,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="471" spans="1:28">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>32</v>
       </c>
@@ -25265,7 +25322,7 @@
         <v>177</v>
       </c>
       <c r="J471">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K471">
         <v>13000</v>
@@ -25304,7 +25361,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="472" spans="1:28">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>32</v>
       </c>
@@ -25324,7 +25381,7 @@
         <v>177</v>
       </c>
       <c r="J472">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K472">
         <v>13000</v>
@@ -25363,7 +25420,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="473" spans="1:28">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>32</v>
       </c>
@@ -25383,7 +25440,7 @@
         <v>177</v>
       </c>
       <c r="J473">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K473">
         <v>13000</v>
@@ -25422,7 +25479,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="474" spans="1:28">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>32</v>
       </c>
@@ -25442,7 +25499,7 @@
         <v>177</v>
       </c>
       <c r="J474">
-        <v>506.3333333333333</v>
+        <v>506.33333333333331</v>
       </c>
       <c r="K474">
         <v>13000</v>
@@ -25481,7 +25538,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="475" spans="1:28">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>32</v>
       </c>
@@ -25531,7 +25588,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="476" spans="1:28">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>32</v>
       </c>
@@ -25581,7 +25638,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="477" spans="1:28">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>32</v>
       </c>
@@ -25631,7 +25688,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="478" spans="1:28">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>32</v>
       </c>
@@ -25681,7 +25738,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="479" spans="1:28">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>32</v>
       </c>
@@ -25731,7 +25788,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="480" spans="1:28">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>32</v>
       </c>
@@ -25751,7 +25808,7 @@
         <v>177</v>
       </c>
       <c r="J480">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K480">
         <v>26480</v>
@@ -25790,7 +25847,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="481" spans="1:28">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>32</v>
       </c>
@@ -25810,7 +25867,7 @@
         <v>177</v>
       </c>
       <c r="J481">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K481">
         <v>26480</v>
@@ -25849,7 +25906,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="482" spans="1:28">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>32</v>
       </c>
@@ -25869,7 +25926,7 @@
         <v>177</v>
       </c>
       <c r="J482">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K482">
         <v>26480</v>
@@ -25908,7 +25965,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="483" spans="1:28">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>32</v>
       </c>
@@ -25928,7 +25985,7 @@
         <v>177</v>
       </c>
       <c r="J483">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K483">
         <v>26480</v>
@@ -25967,7 +26024,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="484" spans="1:28">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>32</v>
       </c>
@@ -25987,7 +26044,7 @@
         <v>177</v>
       </c>
       <c r="J484">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K484">
         <v>26480</v>
@@ -26026,7 +26083,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="485" spans="1:28">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>32</v>
       </c>
@@ -26046,7 +26103,7 @@
         <v>177</v>
       </c>
       <c r="J485">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K485">
         <v>26480</v>
@@ -26085,7 +26142,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="486" spans="1:28">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>32</v>
       </c>
@@ -26105,7 +26162,7 @@
         <v>177</v>
       </c>
       <c r="J486">
-        <v>737.7142857142857</v>
+        <v>737.71428571428567</v>
       </c>
       <c r="K486">
         <v>26480</v>
@@ -26144,7 +26201,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="487" spans="1:28">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>32</v>
       </c>
@@ -26185,7 +26242,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="488" spans="1:28">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>32</v>
       </c>
@@ -26205,7 +26262,7 @@
         <v>177</v>
       </c>
       <c r="J488">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K488">
         <v>28070</v>
@@ -26244,7 +26301,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="489" spans="1:28">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>32</v>
       </c>
@@ -26264,7 +26321,7 @@
         <v>177</v>
       </c>
       <c r="J489">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K489">
         <v>28070</v>
@@ -26303,7 +26360,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="490" spans="1:28">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>32</v>
       </c>
@@ -26323,7 +26380,7 @@
         <v>177</v>
       </c>
       <c r="J490">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K490">
         <v>28070</v>
@@ -26362,7 +26419,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="491" spans="1:28">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>32</v>
       </c>
@@ -26382,7 +26439,7 @@
         <v>177</v>
       </c>
       <c r="J491">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K491">
         <v>28070</v>
@@ -26421,7 +26478,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="492" spans="1:28">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>32</v>
       </c>
@@ -26441,7 +26498,7 @@
         <v>177</v>
       </c>
       <c r="J492">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K492">
         <v>28070</v>
@@ -26480,7 +26537,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="493" spans="1:28">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>32</v>
       </c>
@@ -26500,7 +26557,7 @@
         <v>177</v>
       </c>
       <c r="J493">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K493">
         <v>28070</v>
@@ -26539,7 +26596,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="494" spans="1:28">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>32</v>
       </c>
@@ -26559,7 +26616,7 @@
         <v>177</v>
       </c>
       <c r="J494">
-        <v>335.1428571428572</v>
+        <v>335.14285714285722</v>
       </c>
       <c r="K494">
         <v>28070</v>
@@ -26598,7 +26655,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="495" spans="1:28">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>32</v>
       </c>
@@ -26657,7 +26714,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="496" spans="1:28">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>32</v>
       </c>
@@ -26716,7 +26773,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="497" spans="1:28">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>32</v>
       </c>
@@ -26775,7 +26832,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="498" spans="1:28">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>32</v>
       </c>
@@ -26822,7 +26879,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="499" spans="1:28">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>32</v>
       </c>
@@ -26869,7 +26926,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="500" spans="1:28">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>32</v>
       </c>
@@ -26928,7 +26985,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="501" spans="1:28">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>32</v>
       </c>
@@ -26987,7 +27044,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="502" spans="1:28">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>32</v>
       </c>
@@ -27040,7 +27097,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="503" spans="1:28">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>32</v>
       </c>
@@ -27093,7 +27150,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="504" spans="1:28">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -27140,7 +27197,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="505" spans="1:28">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>32</v>
       </c>
@@ -27187,7 +27244,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="506" spans="1:28">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>32</v>
       </c>
@@ -27246,7 +27303,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="507" spans="1:28">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>32</v>
       </c>
@@ -27305,7 +27362,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="508" spans="1:28">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>32</v>
       </c>
@@ -27352,7 +27409,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="509" spans="1:28">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>32</v>
       </c>
@@ -27399,7 +27456,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="510" spans="1:28">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>32</v>
       </c>
@@ -27446,7 +27503,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="511" spans="1:28">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>32</v>
       </c>
@@ -27487,7 +27544,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="512" spans="1:28">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>32</v>
       </c>
@@ -27507,7 +27564,7 @@
         <v>177</v>
       </c>
       <c r="J512">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K512">
         <v>22000</v>
@@ -27537,7 +27594,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="513" spans="1:28">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>32</v>
       </c>
@@ -27557,7 +27614,7 @@
         <v>177</v>
       </c>
       <c r="J513">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K513">
         <v>22000</v>
@@ -27587,7 +27644,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="514" spans="1:28">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>32</v>
       </c>
@@ -27607,7 +27664,7 @@
         <v>177</v>
       </c>
       <c r="J514">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K514">
         <v>22000</v>
@@ -27637,7 +27694,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="515" spans="1:28">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>32</v>
       </c>
@@ -27657,7 +27714,7 @@
         <v>177</v>
       </c>
       <c r="J515">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K515">
         <v>22000</v>
@@ -27687,7 +27744,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="516" spans="1:28">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>32</v>
       </c>
@@ -27707,7 +27764,7 @@
         <v>177</v>
       </c>
       <c r="J516">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K516">
         <v>22000</v>
@@ -27737,7 +27794,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="517" spans="1:28">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>32</v>
       </c>
@@ -27757,7 +27814,7 @@
         <v>177</v>
       </c>
       <c r="J517">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K517">
         <v>22000</v>
@@ -27787,7 +27844,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="518" spans="1:28">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>32</v>
       </c>
@@ -27807,7 +27864,7 @@
         <v>177</v>
       </c>
       <c r="J518">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K518">
         <v>22000</v>
@@ -27837,7 +27894,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="519" spans="1:28">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>32</v>
       </c>
@@ -27857,7 +27914,7 @@
         <v>177</v>
       </c>
       <c r="J519">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K519">
         <v>22000</v>
@@ -27887,7 +27944,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="520" spans="1:28">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>32</v>
       </c>
@@ -27907,7 +27964,7 @@
         <v>177</v>
       </c>
       <c r="J520">
-        <v>713.3333333333334</v>
+        <v>713.33333333333337</v>
       </c>
       <c r="K520">
         <v>22000</v>
@@ -27937,7 +27994,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="521" spans="1:28">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>32</v>
       </c>
@@ -27957,7 +28014,7 @@
         <v>178</v>
       </c>
       <c r="J521">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K521">
         <v>16200</v>
@@ -27984,7 +28041,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" spans="1:28">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>32</v>
       </c>
@@ -28004,7 +28061,7 @@
         <v>178</v>
       </c>
       <c r="J522">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K522">
         <v>16200</v>
@@ -28031,7 +28088,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="523" spans="1:28">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>32</v>
       </c>
@@ -28051,7 +28108,7 @@
         <v>178</v>
       </c>
       <c r="J523">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K523">
         <v>16200</v>
@@ -28078,7 +28135,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="524" spans="1:28">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>32</v>
       </c>
@@ -28098,7 +28155,7 @@
         <v>178</v>
       </c>
       <c r="J524">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K524">
         <v>16200</v>
@@ -28125,7 +28182,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="525" spans="1:28">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>32</v>
       </c>
@@ -28145,7 +28202,7 @@
         <v>178</v>
       </c>
       <c r="J525">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K525">
         <v>16200</v>
@@ -28172,7 +28229,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="526" spans="1:28">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>32</v>
       </c>
@@ -28192,7 +28249,7 @@
         <v>178</v>
       </c>
       <c r="J526">
-        <v>249.3333333333333</v>
+        <v>249.33333333333329</v>
       </c>
       <c r="K526">
         <v>16200</v>
@@ -28219,7 +28276,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="527" spans="1:28">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>32</v>
       </c>
@@ -28266,7 +28323,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="528" spans="1:28">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>32</v>
       </c>
@@ -28313,7 +28370,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="529" spans="1:28">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>32</v>
       </c>
@@ -28333,7 +28390,7 @@
         <v>178</v>
       </c>
       <c r="J529">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K529">
         <v>17000</v>
@@ -28363,7 +28420,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="530" spans="1:28">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>32</v>
       </c>
@@ -28383,7 +28440,7 @@
         <v>178</v>
       </c>
       <c r="J530">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K530">
         <v>17000</v>
@@ -28422,7 +28479,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="531" spans="1:28">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>32</v>
       </c>
@@ -28442,7 +28499,7 @@
         <v>178</v>
       </c>
       <c r="J531">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K531">
         <v>17000</v>
@@ -28481,7 +28538,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="532" spans="1:28">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>32</v>
       </c>
@@ -28501,7 +28558,7 @@
         <v>178</v>
       </c>
       <c r="J532">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K532">
         <v>17000</v>
@@ -28540,7 +28597,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="533" spans="1:28">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>32</v>
       </c>
@@ -28560,7 +28617,7 @@
         <v>178</v>
       </c>
       <c r="J533">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K533">
         <v>17000</v>
@@ -28590,7 +28647,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="534" spans="1:28">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>32</v>
       </c>
@@ -28610,7 +28667,7 @@
         <v>178</v>
       </c>
       <c r="J534">
-        <v>306.1666666666667</v>
+        <v>306.16666666666669</v>
       </c>
       <c r="K534">
         <v>17000</v>
@@ -28640,7 +28697,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="535" spans="1:28">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>32</v>
       </c>
@@ -28687,7 +28744,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="536" spans="1:28">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>32</v>
       </c>
@@ -28734,7 +28791,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="537" spans="1:28">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>32</v>
       </c>
@@ -28781,7 +28838,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="538" spans="1:28">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>32</v>
       </c>
@@ -28828,7 +28885,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="539" spans="1:28">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>32</v>
       </c>
@@ -28875,7 +28932,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="540" spans="1:28">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>32</v>
       </c>
@@ -28922,7 +28979,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="541" spans="1:28">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>32</v>
       </c>
@@ -28969,7 +29026,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="542" spans="1:28">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>32</v>
       </c>
@@ -29016,7 +29073,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="543" spans="1:28">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>32</v>
       </c>
@@ -29066,7 +29123,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="544" spans="1:28">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>32</v>
       </c>
@@ -29116,7 +29173,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="545" spans="1:28">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>32</v>
       </c>
@@ -29136,7 +29193,7 @@
         <v>178</v>
       </c>
       <c r="J545">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K545">
         <v>16200</v>
@@ -29163,7 +29220,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="546" spans="1:28">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>32</v>
       </c>
@@ -29183,7 +29240,7 @@
         <v>178</v>
       </c>
       <c r="J546">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K546">
         <v>16200</v>
@@ -29210,7 +29267,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="547" spans="1:28">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>32</v>
       </c>
@@ -29230,7 +29287,7 @@
         <v>178</v>
       </c>
       <c r="J547">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K547">
         <v>16200</v>
@@ -29257,7 +29314,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="548" spans="1:28">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>32</v>
       </c>
@@ -29277,7 +29334,7 @@
         <v>178</v>
       </c>
       <c r="J548">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K548">
         <v>16200</v>
@@ -29304,7 +29361,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="549" spans="1:28">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>32</v>
       </c>
@@ -29324,7 +29381,7 @@
         <v>178</v>
       </c>
       <c r="J549">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K549">
         <v>16200</v>
@@ -29351,7 +29408,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="550" spans="1:28">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>32</v>
       </c>
@@ -29371,7 +29428,7 @@
         <v>178</v>
       </c>
       <c r="J550">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K550">
         <v>16200</v>
@@ -29398,7 +29455,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="551" spans="1:28">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>32</v>
       </c>
@@ -29418,7 +29475,7 @@
         <v>178</v>
       </c>
       <c r="J551">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K551">
         <v>16200</v>
@@ -29445,7 +29502,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="552" spans="1:28">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>32</v>
       </c>
@@ -29465,7 +29522,7 @@
         <v>178</v>
       </c>
       <c r="J552">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K552">
         <v>16200</v>
@@ -29492,7 +29549,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="553" spans="1:28">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>32</v>
       </c>
@@ -29512,7 +29569,7 @@
         <v>178</v>
       </c>
       <c r="J553">
-        <v>399.1111111111111</v>
+        <v>399.11111111111109</v>
       </c>
       <c r="K553">
         <v>16200</v>
@@ -29539,7 +29596,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="554" spans="1:28">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>32</v>
       </c>
@@ -29586,7 +29643,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="555" spans="1:28">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>32</v>
       </c>
@@ -29633,7 +29690,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="556" spans="1:28">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>32</v>
       </c>
@@ -29680,7 +29737,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="557" spans="1:28">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>32</v>
       </c>
@@ -29727,7 +29784,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="558" spans="1:28">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>32</v>
       </c>
@@ -29774,7 +29831,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="559" spans="1:28">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>32</v>
       </c>
@@ -29821,7 +29878,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="560" spans="1:28">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>32</v>
       </c>
@@ -29868,7 +29925,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="561" spans="1:28">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>32</v>
       </c>
@@ -29918,7 +29975,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="562" spans="1:28">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>32</v>
       </c>
@@ -29968,7 +30025,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="563" spans="1:28">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>32</v>
       </c>
@@ -30027,7 +30084,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="564" spans="1:28">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>32</v>
       </c>
@@ -30086,7 +30143,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="565" spans="1:28">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>32</v>
       </c>
@@ -30145,7 +30202,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="566" spans="1:28">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>32</v>
       </c>
@@ -30204,7 +30261,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="567" spans="1:28">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>32</v>
       </c>
@@ -30263,7 +30320,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="568" spans="1:28">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>32</v>
       </c>
@@ -30322,7 +30379,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="569" spans="1:28">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>32</v>
       </c>
@@ -30381,7 +30438,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="570" spans="1:28">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>32</v>
       </c>
@@ -30440,7 +30497,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="571" spans="1:28">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>32</v>
       </c>
@@ -30490,7 +30547,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="572" spans="1:28">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>32</v>
       </c>
@@ -30540,7 +30597,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="573" spans="1:28">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>32</v>
       </c>
@@ -30590,7 +30647,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="574" spans="1:28">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>32</v>
       </c>
@@ -30640,7 +30697,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="575" spans="1:28">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>32</v>
       </c>
@@ -30660,7 +30717,7 @@
         <v>178</v>
       </c>
       <c r="J575">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K575">
         <v>16200</v>
@@ -30699,7 +30756,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="576" spans="1:28">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>32</v>
       </c>
@@ -30719,7 +30776,7 @@
         <v>178</v>
       </c>
       <c r="J576">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K576">
         <v>16200</v>
@@ -30758,7 +30815,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="577" spans="1:28">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>32</v>
       </c>
@@ -30778,7 +30835,7 @@
         <v>178</v>
       </c>
       <c r="J577">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K577">
         <v>16200</v>
@@ -30817,7 +30874,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="578" spans="1:28">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>32</v>
       </c>
@@ -30837,7 +30894,7 @@
         <v>178</v>
       </c>
       <c r="J578">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K578">
         <v>16200</v>
@@ -30876,7 +30933,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="579" spans="1:28">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>32</v>
       </c>
@@ -30896,7 +30953,7 @@
         <v>178</v>
       </c>
       <c r="J579">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K579">
         <v>16200</v>
@@ -30935,7 +30992,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="580" spans="1:28">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>32</v>
       </c>
@@ -30955,7 +31012,7 @@
         <v>178</v>
       </c>
       <c r="J580">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K580">
         <v>16200</v>
@@ -30994,7 +31051,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="581" spans="1:28">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>32</v>
       </c>
@@ -31014,7 +31071,7 @@
         <v>178</v>
       </c>
       <c r="J581">
-        <v>209.1428571428571</v>
+        <v>209.14285714285711</v>
       </c>
       <c r="K581">
         <v>16200</v>
@@ -31053,7 +31110,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="582" spans="1:28">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>32</v>
       </c>
@@ -31100,7 +31157,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="583" spans="1:28">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>32</v>
       </c>
@@ -31147,7 +31204,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="584" spans="1:28">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>32</v>
       </c>
@@ -31194,7 +31251,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="585" spans="1:28">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>32</v>
       </c>
@@ -31241,7 +31298,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="586" spans="1:28">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>32</v>
       </c>
@@ -31288,7 +31345,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="587" spans="1:28">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>32</v>
       </c>
@@ -31308,7 +31365,7 @@
         <v>178</v>
       </c>
       <c r="J587">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K587">
         <v>17000</v>
@@ -31347,7 +31404,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="588" spans="1:28">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>32</v>
       </c>
@@ -31367,7 +31424,7 @@
         <v>178</v>
       </c>
       <c r="J588">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K588">
         <v>17000</v>
@@ -31406,7 +31463,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="589" spans="1:28">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>32</v>
       </c>
@@ -31426,7 +31483,7 @@
         <v>178</v>
       </c>
       <c r="J589">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K589">
         <v>17000</v>
@@ -31465,7 +31522,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="590" spans="1:28">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>32</v>
       </c>
@@ -31485,7 +31542,7 @@
         <v>178</v>
       </c>
       <c r="J590">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K590">
         <v>17000</v>
@@ -31515,7 +31572,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="591" spans="1:28">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>32</v>
       </c>
@@ -31535,7 +31592,7 @@
         <v>178</v>
       </c>
       <c r="J591">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K591">
         <v>17000</v>
@@ -31565,7 +31622,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="592" spans="1:28">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>32</v>
       </c>
@@ -31585,7 +31642,7 @@
         <v>178</v>
       </c>
       <c r="J592">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K592">
         <v>17000</v>
@@ -31624,7 +31681,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="593" spans="1:28">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>32</v>
       </c>
@@ -31644,7 +31701,7 @@
         <v>178</v>
       </c>
       <c r="J593">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K593">
         <v>17000</v>
@@ -31683,7 +31740,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="594" spans="1:28">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>32</v>
       </c>
@@ -31703,7 +31760,7 @@
         <v>178</v>
       </c>
       <c r="J594">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K594">
         <v>17000</v>
@@ -31742,7 +31799,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="595" spans="1:28">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>32</v>
       </c>
@@ -31762,7 +31819,7 @@
         <v>178</v>
       </c>
       <c r="J595">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K595">
         <v>17000</v>
@@ -31801,7 +31858,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="596" spans="1:28">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>32</v>
       </c>
@@ -31821,7 +31878,7 @@
         <v>178</v>
       </c>
       <c r="J596">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K596">
         <v>17000</v>
@@ -31860,7 +31917,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="597" spans="1:28">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>32</v>
       </c>
@@ -31880,7 +31937,7 @@
         <v>178</v>
       </c>
       <c r="J597">
-        <v>697.2727272727273</v>
+        <v>697.27272727272725</v>
       </c>
       <c r="K597">
         <v>17000</v>
@@ -31919,7 +31976,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="598" spans="1:28">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>32</v>
       </c>
@@ -31966,7 +32023,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="599" spans="1:28">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>32</v>
       </c>
@@ -32013,7 +32070,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="600" spans="1:28">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>32</v>
       </c>
@@ -32072,7 +32129,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="601" spans="1:28">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>32</v>
       </c>
@@ -32131,7 +32188,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="602" spans="1:28">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>32</v>
       </c>
@@ -32190,7 +32247,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="603" spans="1:28">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>32</v>
       </c>
@@ -32249,7 +32306,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="604" spans="1:28">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>32</v>
       </c>
@@ -32308,7 +32365,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="605" spans="1:28">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>32</v>
       </c>
@@ -32367,7 +32424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="606" spans="1:28">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>32</v>
       </c>
@@ -32426,7 +32483,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="607" spans="1:28">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>32</v>
       </c>
@@ -32485,7 +32542,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="608" spans="1:28">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>32</v>
       </c>
@@ -32544,7 +32601,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="609" spans="1:28">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>32</v>
       </c>
@@ -32603,7 +32660,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:28">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>32</v>
       </c>
@@ -32623,7 +32680,7 @@
         <v>176</v>
       </c>
       <c r="J610">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K610">
         <v>150000</v>
@@ -32662,7 +32719,7 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="611" spans="1:28">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>32</v>
       </c>
@@ -32682,7 +32739,7 @@
         <v>176</v>
       </c>
       <c r="J611">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K611">
         <v>150000</v>
@@ -32721,7 +32778,7 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="612" spans="1:28">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>32</v>
       </c>
@@ -32741,7 +32798,7 @@
         <v>176</v>
       </c>
       <c r="J612">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K612">
         <v>150000</v>
@@ -32780,7 +32837,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="613" spans="1:28">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>32</v>
       </c>
@@ -32800,7 +32857,7 @@
         <v>176</v>
       </c>
       <c r="J613">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K613">
         <v>150000</v>
@@ -32839,7 +32896,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="614" spans="1:28">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>32</v>
       </c>
@@ -32859,7 +32916,7 @@
         <v>176</v>
       </c>
       <c r="J614">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K614">
         <v>150000</v>
@@ -32898,7 +32955,7 @@
         <v>14220</v>
       </c>
     </row>
-    <row r="615" spans="1:28">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>32</v>
       </c>
@@ -32918,7 +32975,7 @@
         <v>176</v>
       </c>
       <c r="J615">
-        <v>302.8333333333333</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="K615">
         <v>150000</v>
@@ -32957,7 +33014,7 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="616" spans="1:28">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>32</v>
       </c>
@@ -33016,7 +33073,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="617" spans="1:28">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>32</v>
       </c>
@@ -33075,7 +33132,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="618" spans="1:28">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>32</v>
       </c>
@@ -33134,7 +33191,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="619" spans="1:28">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>32</v>
       </c>
@@ -33193,7 +33250,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="620" spans="1:28">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>32</v>
       </c>
@@ -33252,7 +33309,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="621" spans="1:28">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>32</v>
       </c>
@@ -33311,7 +33368,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="622" spans="1:28">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>32</v>
       </c>
@@ -33370,7 +33427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="623" spans="1:28">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>32</v>
       </c>
@@ -33435,6 +33492,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010006A6854841B9BF408CC45B5F2BF21A94" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5f4e320343f2e6f468644ea5a01d83cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="010fced1-efe7-48a4-888c-589b08d0b3f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af6d99e703f3c119722d3debf6110ad0" ns2:_="">
     <xsd:import namespace="010fced1-efe7-48a4-888c-589b08d0b3f9"/>
@@ -33580,29 +33652,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FAFE516-62E3-4AEA-ADC2-E7A4C678491E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24946A1-71A3-40E6-992A-3DB83CA24C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BD5370-DCFE-48F4-8BA2-666AF07EABD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BD5370-DCFE-48F4-8BA2-666AF07EABD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24946A1-71A3-40E6-992A-3DB83CA24C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FAFE516-62E3-4AEA-ADC2-E7A4C678491E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="010fced1-efe7-48a4-888c-589b08d0b3f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>